--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CF3C5DCF-4641-4306-8300-81167F6488C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20550" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -42,12 +41,6 @@
   </si>
   <si>
     <t>Unable to understand business logics</t>
-  </si>
-  <si>
-    <t>engineeringcategory</t>
-  </si>
-  <si>
-    <t>Computer/Information Science</t>
   </si>
   <si>
     <t>Testcase ID</t>
@@ -123,11 +116,17 @@
   <si>
     <t>Course_to_My course_Wishlist</t>
   </si>
+  <si>
+    <t>expectedresult</t>
+  </si>
+  <si>
+    <t>engineering-tutions/computerinformation-science</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,29 +492,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -532,13 +530,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -552,13 +550,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -566,13 +564,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -580,13 +578,13 @@
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -594,13 +592,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -608,13 +606,13 @@
     </row>
     <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -622,13 +620,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -636,13 +634,13 @@
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -650,13 +648,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>question_title</t>
   </si>
@@ -122,12 +122,21 @@
   <si>
     <t>engineering-tutions/computerinformation-science</t>
   </si>
+  <si>
+    <t>TC_ADT_012</t>
+  </si>
+  <si>
+    <t>Add To WishList</t>
+  </si>
+  <si>
+    <t>Wishlisted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +165,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -177,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,11 +215,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,6 +239,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +688,31 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\Skillrary_FrameWork012\SkillRary_FrameWork\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF92D97-6A26-468F-8E08-0D976B79BA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="5925"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>question_title</t>
   </si>
@@ -131,12 +136,45 @@
   <si>
     <t>Wishlisted</t>
   </si>
+  <si>
+    <t>ExpectedButton</t>
+  </si>
+  <si>
+    <t>TC_HMP_002</t>
+  </si>
+  <si>
+    <t>Take paid course_Latest Live course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKE THIS COURSE </t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>ExpectedSubject</t>
+  </si>
+  <si>
+    <t>TC-MS-015</t>
+  </si>
+  <si>
+    <t>Compose Message</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Please Provide a course for Advanced Selenium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +209,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -192,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,22 +259,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -239,8 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,23 +554,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -576,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +624,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -604,7 +638,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,7 +652,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -632,7 +666,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,7 +680,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -660,7 +694,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -674,7 +708,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -688,7 +722,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,16 +736,83 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\Skillrary_FrameWork012\SkillRary_FrameWork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF92D97-6A26-468F-8E08-0D976B79BA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988FDA7-EEC5-4C57-9DDC-502B81882C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>Take paid course_Latest Live course</t>
   </si>
   <si>
-    <t xml:space="preserve">TAKE THIS COURSE </t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Please Provide a course for Advanced Selenium</t>
+  </si>
+  <si>
+    <t>TAKE THIS COURSE</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -786,31 +786,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5"/>
     </row>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\Skillrary_FrameWork012\SkillRary_FrameWork\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4988FDA7-EEC5-4C57-9DDC-502B81882C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{36CA2088-2A88-4F33-BC11-7B8D42416CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>question_title</t>
   </si>
@@ -107,21 +103,12 @@
     <t>Course name</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
     <t>TC_MC_018</t>
   </si>
   <si>
     <t>Take recorded course</t>
   </si>
   <si>
-    <t>TC_CTM_002</t>
-  </si>
-  <si>
-    <t>Course_to_My course_Wishlist</t>
-  </si>
-  <si>
     <t>expectedresult</t>
   </si>
   <si>
@@ -168,6 +155,24 @@
   </si>
   <si>
     <t>TAKE THIS COURSE</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>TC_MC-022</t>
+  </si>
+  <si>
+    <t>Course Information</t>
+  </si>
+  <si>
+    <t>Expected Title</t>
+  </si>
+  <si>
+    <t>Expected lable</t>
+  </si>
+  <si>
+    <t>About This course</t>
   </si>
 </sst>
 </file>
@@ -271,10 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,20 +562,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="4" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -610,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -632,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,21 +657,21 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -676,25 +681,29 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,25 +713,29 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -730,27 +743,27 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -758,27 +771,27 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,31 +799,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5"/>
     </row>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{36CA2088-2A88-4F33-BC11-7B8D42416CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\Skillrary_FrameWork012\SkillRary_FrameWork\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70608A3-70D2-4B41-A451-8490D560D1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>question_title</t>
   </si>
@@ -173,6 +177,18 @@
   </si>
   <si>
     <t>About This course</t>
+  </si>
+  <si>
+    <t>ExpectedHeader</t>
+  </si>
+  <si>
+    <t>TC_Ftr_001</t>
+  </si>
+  <si>
+    <t>Navigate_Blog page</t>
+  </si>
+  <si>
+    <t>Blog</t>
   </si>
 </sst>
 </file>
@@ -241,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -264,11 +280,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -280,6 +416,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,43 +710,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -611,12 +761,12 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -627,10 +777,10 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -641,10 +791,10 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -655,10 +805,10 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -669,10 +819,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -685,10 +835,10 @@
         <v>38</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -701,10 +851,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -717,10 +867,10 @@
         <v>39</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -733,10 +883,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -747,10 +897,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -761,10 +911,10 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -775,10 +925,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -789,10 +939,10 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -807,10 +957,10 @@
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -825,7 +975,35 @@
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOUMYASANTA SAHOO\git\Skillrary_FrameWork012\SkillRary_FrameWork\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70608A3-70D2-4B41-A451-8490D560D1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,9 +111,6 @@
     <t>expectedresult</t>
   </si>
   <si>
-    <t>engineering-tutions/computerinformation-science</t>
-  </si>
-  <si>
     <t>TC_ADT_012</t>
   </si>
   <si>
@@ -189,12 +181,15 @@
   </si>
   <si>
     <t>Blog</t>
+  </si>
+  <si>
+    <t>ENGINEERING-TUTIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,23 +704,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="4" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -745,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
@@ -765,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -779,7 +774,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -787,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -807,7 +802,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -815,13 +810,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -832,12 +827,12 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -845,15 +840,15 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -864,28 +859,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
@@ -899,21 +894,21 @@
       <c r="E11" s="1"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
@@ -921,27 +916,27 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
@@ -949,35 +944,35 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
@@ -985,21 +980,21 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>

--- a/SkillRary_FrameWork/Data/testData.xlsx
+++ b/SkillRary_FrameWork/Data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>question_title</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>ENGINEERING-TUTIONS</t>
+  </si>
+  <si>
+    <t>TC_CAT_003</t>
+  </si>
+  <si>
+    <t>view_Apptitude</t>
+  </si>
+  <si>
+    <t>Qspiders- Complete Aptitude Co…</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -395,11 +404,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -425,6 +456,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1035,30 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
